--- a/movies.xlsx
+++ b/movies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="638">
   <si>
     <t>movie_name</t>
   </si>
@@ -79,30 +79,30 @@
     <t>The Matrix</t>
   </si>
   <si>
+    <t>GoodFellas</t>
+  </si>
+  <si>
+    <t>One Flew Over the Cuckoo's Nest</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
     <t>Spider-man: Across the Spider-verse</t>
   </si>
   <si>
-    <t>GoodFellas</t>
-  </si>
-  <si>
-    <t>One Flew Over the Cuckoo's Nest</t>
-  </si>
-  <si>
-    <t>Se7en</t>
-  </si>
-  <si>
     <t>It's a Wonderful Life</t>
   </si>
   <si>
     <t>Shichinin No Samurai</t>
   </si>
   <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
     <t>The Silence of the Lambs</t>
   </si>
   <si>
-    <t>Interstellar</t>
-  </si>
-  <si>
     <t>Saving Private Ryan</t>
   </si>
   <si>
@@ -136,42 +136,42 @@
     <t>Parasite</t>
   </si>
   <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>American History X</t>
+  </si>
+  <si>
+    <t>The Departed</t>
+  </si>
+  <si>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>The Usual Suspects</t>
+  </si>
+  <si>
     <t>Oppenheimer</t>
   </si>
   <si>
-    <t>Gladiator</t>
-  </si>
-  <si>
-    <t>The Lion King</t>
-  </si>
-  <si>
-    <t>Léon</t>
-  </si>
-  <si>
-    <t>American History X</t>
-  </si>
-  <si>
-    <t>The Departed</t>
-  </si>
-  <si>
-    <t>Whiplash</t>
-  </si>
-  <si>
-    <t>The Prestige</t>
-  </si>
-  <si>
-    <t>The Usual Suspects</t>
-  </si>
-  <si>
     <t>Grave of the Fireflies</t>
   </si>
   <si>
+    <t>Seppuku</t>
+  </si>
+  <si>
     <t>Casablanca</t>
   </si>
   <si>
-    <t>Seppuku</t>
-  </si>
-  <si>
     <t>Intouchables</t>
   </si>
   <si>
@@ -235,15 +235,15 @@
     <t>Alien 2</t>
   </si>
   <si>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
     <t>American Beauty</t>
   </si>
   <si>
-    <t>The Dark Knight Rises</t>
-  </si>
-  <si>
-    <t>Inglourious Basterds</t>
-  </si>
-  <si>
     <t>Dr</t>
   </si>
   <si>
@@ -259,18 +259,18 @@
     <t>Toy Story</t>
   </si>
   <si>
+    <t>Das Boot</t>
+  </si>
+  <si>
     <t>Braveheart</t>
   </si>
   <si>
-    <t>Das Boot</t>
+    <t>Avengers: Endgame</t>
   </si>
   <si>
     <t>Joker</t>
   </si>
   <si>
-    <t>Avengers: Endgame</t>
-  </si>
-  <si>
     <t>Mononoke-hime</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Singin' in the Rain</t>
   </si>
   <si>
+    <t>Capharnaüm</t>
+  </si>
+  <si>
     <t>Requiem for a Dream</t>
   </si>
   <si>
-    <t>Capharnaüm</t>
-  </si>
-  <si>
     <t>Toy Story 3</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>M - Eine Stadt sucht einen Mörder</t>
   </si>
   <si>
+    <t>The Apartment</t>
+  </si>
+  <si>
     <t>North by Northwest</t>
   </si>
   <si>
-    <t>The Apartment</t>
-  </si>
-  <si>
     <t>Vertigo</t>
   </si>
   <si>
@@ -358,15 +358,15 @@
     <t>Incendies</t>
   </si>
   <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
     <t>To Kill a Mockingbird</t>
   </si>
   <si>
@@ -385,18 +385,18 @@
     <t>Die Hard</t>
   </si>
   <si>
+    <t>Taare Zameen Par</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Ladri Di Biciclette</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Ladri Di Biciclette</t>
-  </si>
-  <si>
-    <t>Snatch</t>
-  </si>
-  <si>
-    <t>Taare Zameen Par</t>
-  </si>
-  <si>
     <t>Taxi Driver</t>
   </si>
   <si>
@@ -409,12 +409,12 @@
     <t>Dangal</t>
   </si>
   <si>
+    <t>Per qualche dollaro in più</t>
+  </si>
+  <si>
     <t>Top Gun: Maverick</t>
   </si>
   <si>
-    <t>Per qualche dollaro in più</t>
-  </si>
-  <si>
     <t>Batman Begins</t>
   </si>
   <si>
@@ -442,27 +442,27 @@
     <t>The Truman Show</t>
   </si>
   <si>
+    <t>There Will Be Blood</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
     <t>Ran</t>
   </si>
   <si>
-    <t>There Will Be Blood</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
     <t>Shutter Island</t>
   </si>
   <si>
     <t>El Laberinto Del Fauno</t>
   </si>
   <si>
+    <t>The Sixth Sense</t>
+  </si>
+  <si>
     <t>Unforgiven</t>
   </si>
   <si>
-    <t>The Sixth Sense</t>
-  </si>
-  <si>
     <t>Jurassic Park</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>No Country for Old Men</t>
   </si>
   <si>
+    <t>Kill Bill: Vol</t>
+  </si>
+  <si>
     <t>Monty Python and the Holy Grail</t>
   </si>
   <si>
-    <t>Kill Bill: Vol</t>
-  </si>
-  <si>
     <t>The Great Escape</t>
   </si>
   <si>
@@ -502,36 +502,36 @@
     <t>Chinatown</t>
   </si>
   <si>
+    <t>Hauru No Ugoku Shiro</t>
+  </si>
+  <si>
+    <t>Dial M for Murder</t>
+  </si>
+  <si>
+    <t>Gone with the Wind</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Raging Bull</t>
+  </si>
+  <si>
     <t>Spider-Man: No Way Home</t>
   </si>
   <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Gone with the Wind</t>
-  </si>
-  <si>
-    <t>Raging Bull</t>
-  </si>
-  <si>
-    <t>Dial M for Murder</t>
-  </si>
-  <si>
-    <t>Hauru No Ugoku Shiro</t>
-  </si>
-  <si>
     <t>Lock, Stock and Two Smoking Barrels</t>
   </si>
   <si>
     <t>El Secreto De Sus Ojos</t>
   </si>
   <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
     <t>Inside Out</t>
   </si>
   <si>
-    <t>Prisoners</t>
-  </si>
-  <si>
     <t>Three Billboards Outside Ebbing, Missouri</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Klaus</t>
   </si>
   <si>
+    <t>Harry Potter and the Deathly Hallows: Part 2</t>
+  </si>
+  <si>
     <t>Bacheha-Ye Aseman</t>
   </si>
   <si>
-    <t>Harry Potter and the Deathly Hallows: Part 2</t>
-  </si>
-  <si>
     <t>Blade Runner</t>
   </si>
   <si>
@@ -577,30 +577,33 @@
     <t>Before Sunrise</t>
   </si>
   <si>
+    <t>The Grand Budapest Hotel</t>
+  </si>
+  <si>
     <t>The Gold Rush</t>
   </si>
   <si>
-    <t>The Grand Budapest Hotel</t>
-  </si>
-  <si>
     <t>Ben-Hur</t>
   </si>
   <si>
     <t>Gone Girl</t>
   </si>
   <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
     <t>On the Waterfront</t>
   </si>
   <si>
-    <t>Barry Lyndon</t>
-  </si>
-  <si>
     <t>Hacksaw Ridge</t>
   </si>
   <si>
     <t>In the Name of the Father</t>
   </si>
   <si>
+    <t>Salinui Chueok</t>
+  </si>
+  <si>
     <t>The General</t>
   </si>
   <si>
@@ -610,27 +613,24 @@
     <t>Smultronstället</t>
   </si>
   <si>
-    <t>Salinui Chueok</t>
+    <t>Le Salaire De La Peur</t>
   </si>
   <si>
     <t>The Third Man</t>
   </si>
   <si>
-    <t>Le Salaire De La Peur</t>
-  </si>
-  <si>
     <t>Relatos Salvajes</t>
   </si>
   <si>
     <t>Sherlock Jr</t>
   </si>
   <si>
+    <t>Dead Poets Society</t>
+  </si>
+  <si>
     <t>Mad Max: Fury Road</t>
   </si>
   <si>
-    <t>Dead Poets Society</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -640,57 +640,57 @@
     <t>How to Train Your Dragon</t>
   </si>
   <si>
+    <t>Jaws</t>
+  </si>
+  <si>
     <t>Mary and Max</t>
   </si>
   <si>
-    <t>Jaws</t>
-  </si>
-  <si>
     <t>Det Sjunde Inseglet</t>
   </si>
   <si>
     <t>Room</t>
   </si>
   <si>
+    <t>Ford v</t>
+  </si>
+  <si>
     <t>The Big Lebowski</t>
   </si>
   <si>
-    <t>Ford v</t>
-  </si>
-  <si>
     <t>Tokyo Story</t>
   </si>
   <si>
     <t>Ratatouille</t>
   </si>
   <si>
+    <t>Rocky</t>
+  </si>
+  <si>
     <t>Hotel Rwanda</t>
   </si>
   <si>
-    <t>Rocky</t>
-  </si>
-  <si>
     <t>La passion de Jeanne d'Arc</t>
   </si>
   <si>
     <t>Logan</t>
   </si>
   <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
     <t>Platoon</t>
   </si>
   <si>
-    <t>Spotlight</t>
-  </si>
-  <si>
     <t>The Terminator</t>
   </si>
   <si>
+    <t>Jai Bhim</t>
+  </si>
+  <si>
     <t>Before Sunset</t>
   </si>
   <si>
-    <t>Jai Bhim</t>
-  </si>
-  <si>
     <t>Rush</t>
   </si>
   <si>
@@ -703,18 +703,18 @@
     <t>The Best Years of Our Lives</t>
   </si>
   <si>
+    <t>The Exorcist</t>
+  </si>
+  <si>
+    <t>La haine</t>
+  </si>
+  <si>
     <t>The Wizard of Oz</t>
   </si>
   <si>
     <t>Into the Wild</t>
   </si>
   <si>
-    <t>La haine</t>
-  </si>
-  <si>
-    <t>The Exorcist</t>
-  </si>
-  <si>
     <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
   </si>
   <si>
@@ -724,24 +724,24 @@
     <t>To Be or Not to Be</t>
   </si>
   <si>
+    <t>Hachi: A Dog's Tale</t>
+  </si>
+  <si>
+    <t>Ah-ga-ssi</t>
+  </si>
+  <si>
     <t>Groundhog Day</t>
   </si>
   <si>
+    <t>La battaglia di Algeri</t>
+  </si>
+  <si>
     <t>Babam Ve Oglum</t>
   </si>
   <si>
     <t>The Grapes of Wrath</t>
   </si>
   <si>
-    <t>Hachi: A Dog's Tale</t>
-  </si>
-  <si>
-    <t>La battaglia di Algeri</t>
-  </si>
-  <si>
-    <t>Ah-ga-ssi</t>
-  </si>
-  <si>
     <t>Amores perros</t>
   </si>
   <si>
@@ -751,24 +751,24 @@
     <t>Cool Hand Luke</t>
   </si>
   <si>
+    <t>The Sound of Music</t>
+  </si>
+  <si>
     <t>Pather Panchali</t>
   </si>
   <si>
-    <t>The Sound of Music</t>
-  </si>
-  <si>
     <t>It Happened One Night</t>
   </si>
   <si>
     <t>The Iron Giant</t>
   </si>
   <si>
+    <t>The Help</t>
+  </si>
+  <si>
     <t>The 400 Blows</t>
   </si>
   <si>
-    <t>The Help</t>
-  </si>
-  <si>
     <t>Persona</t>
   </si>
   <si>
@@ -820,30 +820,30 @@
     <t>1980</t>
   </si>
   <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
     <t>1946</t>
   </si>
   <si>
     <t>1954</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>1991</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>1998</t>
   </si>
   <si>
@@ -871,12 +871,12 @@
     <t>1988</t>
   </si>
   <si>
+    <t>1962</t>
+  </si>
+  <si>
     <t>1942</t>
   </si>
   <si>
-    <t>1962</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -970,21 +970,21 @@
     <t>1927</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>1948</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>1976</t>
   </si>
   <si>
+    <t>1965</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>1965</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
@@ -997,18 +997,15 @@
     <t>1961</t>
   </si>
   <si>
-    <t>1947</t>
-  </si>
-  <si>
     <t>1982</t>
   </si>
   <si>
+    <t>1939</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>1939</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -1024,12 +1021,12 @@
     <t>1978</t>
   </si>
   <si>
+    <t>1953</t>
+  </si>
+  <si>
     <t>1949</t>
   </si>
   <si>
-    <t>1953</t>
-  </si>
-  <si>
     <t>1924</t>
   </si>
   <si>
@@ -1090,30 +1087,30 @@
     <t>2h 16m</t>
   </si>
   <si>
+    <t>2h 25m</t>
+  </si>
+  <si>
+    <t>2h 13m</t>
+  </si>
+  <si>
+    <t>2h 7m</t>
+  </si>
+  <si>
     <t>2h 20m</t>
   </si>
   <si>
-    <t>2h 25m</t>
-  </si>
-  <si>
-    <t>2h 13m</t>
-  </si>
-  <si>
-    <t>2h 7m</t>
-  </si>
-  <si>
     <t>2h 10m</t>
   </si>
   <si>
     <t>3h 27m</t>
   </si>
   <si>
+    <t>2h 49m</t>
+  </si>
+  <si>
     <t>1h 58m</t>
   </si>
   <si>
-    <t>2h 49m</t>
-  </si>
-  <si>
     <t>1h 56m</t>
   </si>
   <si>
@@ -1138,27 +1135,27 @@
     <t>2h 12m</t>
   </si>
   <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
+    <t>1h 28m</t>
+  </si>
+  <si>
+    <t>1h 50m</t>
+  </si>
+  <si>
+    <t>1h 59m</t>
+  </si>
+  <si>
+    <t>2h 31m</t>
+  </si>
+  <si>
+    <t>1h 46m</t>
+  </si>
+  <si>
     <t>3h</t>
   </si>
   <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
-    <t>1h 28m</t>
-  </si>
-  <si>
-    <t>1h 50m</t>
-  </si>
-  <si>
-    <t>1h 59m</t>
-  </si>
-  <si>
-    <t>2h 31m</t>
-  </si>
-  <si>
-    <t>1h 46m</t>
-  </si>
-  <si>
     <t>1h 29m</t>
   </si>
   <si>
@@ -1195,15 +1192,15 @@
     <t>2h 26m</t>
   </si>
   <si>
+    <t>2h 33m</t>
+  </si>
+  <si>
+    <t>2h 44m</t>
+  </si>
+  <si>
     <t>2h 2m</t>
   </si>
   <si>
-    <t>2h 44m</t>
-  </si>
-  <si>
-    <t>2h 33m</t>
-  </si>
-  <si>
     <t>1h 35m</t>
   </si>
   <si>
@@ -1264,12 +1261,12 @@
     <t>2h 3m</t>
   </si>
   <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
     <t>2h 18m</t>
   </si>
   <si>
-    <t>1h 44m</t>
-  </si>
-  <si>
     <t>1h 54m</t>
   </si>
   <si>
@@ -1282,21 +1279,18 @@
     <t>1h 37m</t>
   </si>
   <si>
-    <t>2h 42m</t>
-  </si>
-  <si>
     <t>2h 38m</t>
   </si>
   <si>
     <t>2h 15m</t>
   </si>
   <si>
+    <t>1h 51m</t>
+  </si>
+  <si>
     <t>1h 31m</t>
   </si>
   <si>
-    <t>1h 51m</t>
-  </si>
-  <si>
     <t>2h 52m</t>
   </si>
   <si>
@@ -1393,553 +1387,547 @@
     <t>2.8M</t>
   </si>
   <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>1.3M</t>
+  </si>
+  <si>
+    <t>835K</t>
+  </si>
+  <si>
+    <t>1.4M</t>
+  </si>
+  <si>
     <t>1.9M</t>
   </si>
   <si>
-    <t>1.3M</t>
-  </si>
-  <si>
-    <t>828K</t>
-  </si>
-  <si>
-    <t>1.4M</t>
-  </si>
-  <si>
-    <t>2.1M</t>
-  </si>
-  <si>
-    <t>787K</t>
-  </si>
-  <si>
     <t>2.2M</t>
   </si>
   <si>
+    <t>791K</t>
+  </si>
+  <si>
     <t>1.7M</t>
   </si>
   <si>
     <t>2.5M</t>
   </si>
   <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>235K</t>
-  </si>
-  <si>
     <t>1.2M</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>477K</t>
-  </si>
-  <si>
-    <t>357K</t>
+    <t>272K</t>
+  </si>
+  <si>
+    <t>480K</t>
+  </si>
+  <si>
+    <t>359K</t>
   </si>
   <si>
     <t>1.5M</t>
   </si>
   <si>
+    <t>783K</t>
+  </si>
+  <si>
+    <t>724K</t>
+  </si>
+  <si>
+    <t>1.1M</t>
+  </si>
+  <si>
+    <t>812K</t>
+  </si>
+  <si>
+    <t>880K</t>
+  </si>
+  <si>
+    <t>700K</t>
+  </si>
+  <si>
+    <t>892K</t>
+  </si>
+  <si>
+    <t>1.6M</t>
+  </si>
+  <si>
+    <t>935K</t>
+  </si>
+  <si>
+    <t>453K</t>
+  </si>
+  <si>
+    <t>297K</t>
+  </si>
+  <si>
+    <t>64K</t>
+  </si>
+  <si>
+    <t>593K</t>
+  </si>
+  <si>
+    <t>900K</t>
+  </si>
+  <si>
+    <t>253K</t>
+  </si>
+  <si>
+    <t>274K</t>
+  </si>
+  <si>
+    <t>342K</t>
+  </si>
+  <si>
+    <t>510K</t>
+  </si>
+  <si>
+    <t>921K</t>
+  </si>
+  <si>
+    <t>192K</t>
+  </si>
+  <si>
+    <t>693K</t>
+  </si>
+  <si>
+    <t>402K</t>
+  </si>
+  <si>
+    <t>231K</t>
+  </si>
+  <si>
+    <t>207K</t>
+  </si>
+  <si>
+    <t>232K</t>
+  </si>
+  <si>
+    <t>133K</t>
+  </si>
+  <si>
+    <t>632K</t>
+  </si>
+  <si>
+    <t>744K</t>
+  </si>
+  <si>
+    <t>1.8M</t>
+  </si>
+  <si>
+    <t>507K</t>
+  </si>
+  <si>
+    <t>612K</t>
+  </si>
+  <si>
+    <t>557K</t>
+  </si>
+  <si>
+    <t>418K</t>
+  </si>
+  <si>
+    <t>259K</t>
+  </si>
+  <si>
+    <t>417K</t>
+  </si>
+  <si>
+    <t>367K</t>
+  </si>
+  <si>
+    <t>300K</t>
+  </si>
+  <si>
+    <t>419K</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>254K</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>876K</t>
+  </si>
+  <si>
+    <t>871K</t>
+  </si>
+  <si>
+    <t>90K</t>
+  </si>
+  <si>
+    <t>351K</t>
+  </si>
+  <si>
+    <t>84K</t>
+  </si>
+  <si>
+    <t>306K</t>
+  </si>
+  <si>
+    <t>457K</t>
+  </si>
+  <si>
+    <t>165K</t>
+  </si>
+  <si>
+    <t>191K</t>
+  </si>
+  <si>
+    <t>339K</t>
+  </si>
+  <si>
+    <t>164K</t>
+  </si>
+  <si>
     <t>779K</t>
   </si>
   <si>
-    <t>720K</t>
-  </si>
-  <si>
-    <t>1.1M</t>
+    <t>887K</t>
+  </si>
+  <si>
+    <t>771K</t>
+  </si>
+  <si>
+    <t>861K</t>
+  </si>
+  <si>
+    <t>190K</t>
+  </si>
+  <si>
+    <t>695K</t>
+  </si>
+  <si>
+    <t>106K</t>
+  </si>
+  <si>
+    <t>327K</t>
+  </si>
+  <si>
+    <t>273K</t>
+  </si>
+  <si>
+    <t>793K</t>
+  </si>
+  <si>
+    <t>181K</t>
+  </si>
+  <si>
+    <t>914K</t>
+  </si>
+  <si>
+    <t>202K</t>
+  </si>
+  <si>
+    <t>888K</t>
+  </si>
+  <si>
+    <t>171K</t>
+  </si>
+  <si>
+    <t>602K</t>
+  </si>
+  <si>
+    <t>644K</t>
+  </si>
+  <si>
+    <t>268K</t>
+  </si>
+  <si>
+    <t>633K</t>
+  </si>
+  <si>
+    <t>277K</t>
+  </si>
+  <si>
+    <t>132K</t>
+  </si>
+  <si>
+    <t>178K</t>
+  </si>
+  <si>
+    <t>537K</t>
+  </si>
+  <si>
+    <t>136K</t>
+  </si>
+  <si>
+    <t>82K</t>
+  </si>
+  <si>
+    <t>620K</t>
+  </si>
+  <si>
+    <t>546K</t>
+  </si>
+  <si>
+    <t>690K</t>
+  </si>
+  <si>
+    <t>427K</t>
+  </si>
+  <si>
+    <t>964K</t>
+  </si>
+  <si>
+    <t>130K</t>
+  </si>
+  <si>
+    <t>128K</t>
+  </si>
+  <si>
+    <t>559K</t>
+  </si>
+  <si>
+    <t>449K</t>
+  </si>
+  <si>
+    <t>176K</t>
+  </si>
+  <si>
+    <t>252K</t>
+  </si>
+  <si>
+    <t>341K</t>
+  </si>
+  <si>
+    <t>426K</t>
+  </si>
+  <si>
+    <t>184K</t>
+  </si>
+  <si>
+    <t>370K</t>
+  </si>
+  <si>
+    <t>834K</t>
+  </si>
+  <si>
+    <t>603K</t>
+  </si>
+  <si>
+    <t>217K</t>
+  </si>
+  <si>
+    <t>773K</t>
+  </si>
+  <si>
+    <t>756K</t>
+  </si>
+  <si>
+    <t>229K</t>
+  </si>
+  <si>
+    <t>711K</t>
+  </si>
+  <si>
+    <t>704K</t>
+  </si>
+  <si>
+    <t>488K</t>
+  </si>
+  <si>
+    <t>799K</t>
+  </si>
+  <si>
+    <t>363K</t>
+  </si>
+  <si>
+    <t>708K</t>
+  </si>
+  <si>
+    <t>172K</t>
+  </si>
+  <si>
+    <t>919K</t>
+  </si>
+  <si>
+    <t>78K</t>
+  </si>
+  <si>
+    <t>802K</t>
+  </si>
+  <si>
+    <t>726K</t>
+  </si>
+  <si>
+    <t>328K</t>
+  </si>
+  <si>
+    <t>860K</t>
+  </si>
+  <si>
+    <t>116K</t>
+  </si>
+  <si>
+    <t>248K</t>
+  </si>
+  <si>
+    <t>177K</t>
+  </si>
+  <si>
+    <t>161K</t>
+  </si>
+  <si>
+    <t>569K</t>
+  </si>
+  <si>
+    <t>183K</t>
+  </si>
+  <si>
+    <t>204K</t>
+  </si>
+  <si>
+    <t>96K</t>
+  </si>
+  <si>
+    <t>353K</t>
+  </si>
+  <si>
+    <t>112K</t>
+  </si>
+  <si>
+    <t>65K</t>
+  </si>
+  <si>
+    <t>210K</t>
+  </si>
+  <si>
+    <t>54K</t>
+  </si>
+  <si>
+    <t>523K</t>
+  </si>
+  <si>
+    <t>119K</t>
+  </si>
+  <si>
+    <t>951K</t>
+  </si>
+  <si>
+    <t>777K</t>
+  </si>
+  <si>
+    <t>641K</t>
+  </si>
+  <si>
+    <t>193K</t>
+  </si>
+  <si>
+    <t>439K</t>
+  </si>
+  <si>
+    <t>840K</t>
+  </si>
+  <si>
+    <t>66K</t>
+  </si>
+  <si>
+    <t>790K</t>
+  </si>
+  <si>
+    <t>611K</t>
+  </si>
+  <si>
+    <t>366K</t>
+  </si>
+  <si>
+    <t>59K</t>
   </si>
   <si>
     <t>805K</t>
   </si>
   <si>
-    <t>873K</t>
-  </si>
-  <si>
-    <t>696K</t>
-  </si>
-  <si>
-    <t>881K</t>
-  </si>
-  <si>
-    <t>376K</t>
-  </si>
-  <si>
-    <t>1.6M</t>
-  </si>
-  <si>
-    <t>926K</t>
-  </si>
-  <si>
-    <t>294K</t>
-  </si>
-  <si>
-    <t>590K</t>
-  </si>
-  <si>
-    <t>63K</t>
-  </si>
-  <si>
-    <t>894K</t>
-  </si>
-  <si>
-    <t>252K</t>
-  </si>
-  <si>
-    <t>273K</t>
-  </si>
-  <si>
-    <t>341K</t>
-  </si>
-  <si>
-    <t>507K</t>
-  </si>
-  <si>
-    <t>916K</t>
-  </si>
-  <si>
-    <t>191K</t>
-  </si>
-  <si>
-    <t>690K</t>
-  </si>
-  <si>
-    <t>400K</t>
-  </si>
-  <si>
-    <t>230K</t>
-  </si>
-  <si>
-    <t>205K</t>
-  </si>
-  <si>
-    <t>231K</t>
-  </si>
-  <si>
-    <t>132K</t>
-  </si>
-  <si>
-    <t>623K</t>
-  </si>
-  <si>
-    <t>741K</t>
-  </si>
-  <si>
-    <t>1.8M</t>
-  </si>
-  <si>
-    <t>505K</t>
-  </si>
-  <si>
-    <t>607K</t>
-  </si>
-  <si>
-    <t>550K</t>
+    <t>490K</t>
+  </si>
+  <si>
+    <t>429K</t>
+  </si>
+  <si>
+    <t>902K</t>
+  </si>
+  <si>
+    <t>211K</t>
+  </si>
+  <si>
+    <t>280K</t>
+  </si>
+  <si>
+    <t>500K</t>
+  </si>
+  <si>
+    <t>166K</t>
+  </si>
+  <si>
+    <t>428K</t>
+  </si>
+  <si>
+    <t>68K</t>
+  </si>
+  <si>
+    <t>435K</t>
+  </si>
+  <si>
+    <t>188K</t>
+  </si>
+  <si>
+    <t>781K</t>
+  </si>
+  <si>
+    <t>41K</t>
+  </si>
+  <si>
+    <t>301K</t>
+  </si>
+  <si>
+    <t>163K</t>
+  </si>
+  <si>
+    <t>663K</t>
+  </si>
+  <si>
+    <t>98K</t>
+  </si>
+  <si>
+    <t>249K</t>
+  </si>
+  <si>
+    <t>143K</t>
+  </si>
+  <si>
+    <t>185K</t>
+  </si>
+  <si>
+    <t>250K</t>
+  </si>
+  <si>
+    <t>36K</t>
+  </si>
+  <si>
+    <t>109K</t>
+  </si>
+  <si>
+    <t>125K</t>
+  </si>
+  <si>
+    <t>127K</t>
   </si>
   <si>
     <t>415K</t>
   </si>
   <si>
-    <t>258K</t>
-  </si>
-  <si>
-    <t>414K</t>
-  </si>
-  <si>
-    <t>365K</t>
-  </si>
-  <si>
-    <t>296K</t>
-  </si>
-  <si>
-    <t>416K</t>
-  </si>
-  <si>
-    <t>49K</t>
-  </si>
-  <si>
-    <t>872K</t>
-  </si>
-  <si>
-    <t>98K</t>
-  </si>
-  <si>
-    <t>867K</t>
-  </si>
-  <si>
-    <t>89K</t>
-  </si>
-  <si>
-    <t>695K</t>
-  </si>
-  <si>
-    <t>348K</t>
-  </si>
-  <si>
-    <t>84K</t>
-  </si>
-  <si>
-    <t>305K</t>
-  </si>
-  <si>
-    <t>455K</t>
-  </si>
-  <si>
-    <t>164K</t>
-  </si>
-  <si>
-    <t>338K</t>
-  </si>
-  <si>
-    <t>189K</t>
-  </si>
-  <si>
-    <t>163K</t>
-  </si>
-  <si>
-    <t>776K</t>
-  </si>
-  <si>
-    <t>768K</t>
-  </si>
-  <si>
-    <t>857K</t>
-  </si>
-  <si>
-    <t>188K</t>
-  </si>
-  <si>
-    <t>105K</t>
-  </si>
-  <si>
-    <t>689K</t>
-  </si>
-  <si>
-    <t>325K</t>
-  </si>
-  <si>
-    <t>272K</t>
-  </si>
-  <si>
-    <t>789K</t>
-  </si>
-  <si>
-    <t>180K</t>
-  </si>
-  <si>
-    <t>910K</t>
-  </si>
-  <si>
-    <t>599K</t>
-  </si>
-  <si>
-    <t>170K</t>
-  </si>
-  <si>
-    <t>884K</t>
-  </si>
-  <si>
-    <t>201K</t>
-  </si>
-  <si>
-    <t>638K</t>
-  </si>
-  <si>
-    <t>366K</t>
-  </si>
-  <si>
-    <t>624K</t>
-  </si>
-  <si>
-    <t>266K</t>
-  </si>
-  <si>
-    <t>276K</t>
-  </si>
-  <si>
-    <t>131K</t>
-  </si>
-  <si>
-    <t>175K</t>
-  </si>
-  <si>
-    <t>532K</t>
-  </si>
-  <si>
-    <t>135K</t>
-  </si>
-  <si>
-    <t>81K</t>
-  </si>
-  <si>
-    <t>616K</t>
-  </si>
-  <si>
-    <t>543K</t>
-  </si>
-  <si>
-    <t>687K</t>
-  </si>
-  <si>
-    <t>425K</t>
-  </si>
-  <si>
-    <t>960K</t>
-  </si>
-  <si>
-    <t>129K</t>
-  </si>
-  <si>
-    <t>127K</t>
-  </si>
-  <si>
-    <t>557K</t>
-  </si>
-  <si>
-    <t>445K</t>
-  </si>
-  <si>
-    <t>251K</t>
-  </si>
-  <si>
-    <t>339K</t>
-  </si>
-  <si>
-    <t>825K</t>
-  </si>
-  <si>
-    <t>326K</t>
-  </si>
-  <si>
-    <t>368K</t>
-  </si>
-  <si>
-    <t>183K</t>
-  </si>
-  <si>
-    <t>421K</t>
-  </si>
-  <si>
-    <t>601K</t>
-  </si>
-  <si>
-    <t>216K</t>
-  </si>
-  <si>
-    <t>750K</t>
-  </si>
-  <si>
-    <t>765K</t>
-  </si>
-  <si>
-    <t>534K</t>
-  </si>
-  <si>
-    <t>228K</t>
-  </si>
-  <si>
-    <t>708K</t>
-  </si>
-  <si>
-    <t>700K</t>
-  </si>
-  <si>
-    <t>486K</t>
-  </si>
-  <si>
-    <t>796K</t>
-  </si>
-  <si>
-    <t>360K</t>
-  </si>
-  <si>
-    <t>706K</t>
-  </si>
-  <si>
-    <t>171K</t>
-  </si>
-  <si>
-    <t>78K</t>
-  </si>
-  <si>
-    <t>914K</t>
-  </si>
-  <si>
-    <t>798K</t>
-  </si>
-  <si>
-    <t>723K</t>
-  </si>
-  <si>
-    <t>115K</t>
-  </si>
-  <si>
-    <t>854K</t>
-  </si>
-  <si>
-    <t>247K</t>
-  </si>
-  <si>
-    <t>160K</t>
-  </si>
-  <si>
-    <t>176K</t>
-  </si>
-  <si>
-    <t>563K</t>
-  </si>
-  <si>
-    <t>182K</t>
-  </si>
-  <si>
-    <t>95K</t>
-  </si>
-  <si>
-    <t>350K</t>
-  </si>
-  <si>
-    <t>111K</t>
-  </si>
-  <si>
-    <t>177K</t>
-  </si>
-  <si>
-    <t>64K</t>
-  </si>
-  <si>
-    <t>208K</t>
-  </si>
-  <si>
-    <t>54K</t>
-  </si>
-  <si>
-    <t>519K</t>
-  </si>
-  <si>
-    <t>119K</t>
-  </si>
-  <si>
-    <t>946K</t>
-  </si>
-  <si>
-    <t>772K</t>
-  </si>
-  <si>
-    <t>637K</t>
-  </si>
-  <si>
-    <t>192K</t>
-  </si>
-  <si>
-    <t>437K</t>
-  </si>
-  <si>
-    <t>836K</t>
-  </si>
-  <si>
-    <t>433K</t>
-  </si>
-  <si>
-    <t>65K</t>
-  </si>
-  <si>
-    <t>783K</t>
-  </si>
-  <si>
-    <t>58K</t>
-  </si>
-  <si>
-    <t>800K</t>
-  </si>
-  <si>
-    <t>427K</t>
-  </si>
-  <si>
-    <t>488K</t>
-  </si>
-  <si>
-    <t>897K</t>
-  </si>
-  <si>
-    <t>278K</t>
-  </si>
-  <si>
-    <t>209K</t>
-  </si>
-  <si>
-    <t>497K</t>
-  </si>
-  <si>
-    <t>165K</t>
-  </si>
-  <si>
-    <t>424K</t>
-  </si>
-  <si>
-    <t>68K</t>
-  </si>
-  <si>
-    <t>641K</t>
-  </si>
-  <si>
-    <t>186K</t>
-  </si>
-  <si>
-    <t>429K</t>
-  </si>
-  <si>
-    <t>775K</t>
-  </si>
-  <si>
-    <t>41K</t>
-  </si>
-  <si>
-    <t>660K</t>
-  </si>
-  <si>
-    <t>97K</t>
-  </si>
-  <si>
-    <t>299K</t>
-  </si>
-  <si>
-    <t>161K</t>
-  </si>
-  <si>
-    <t>248K</t>
-  </si>
-  <si>
-    <t>142K</t>
-  </si>
-  <si>
-    <t>184K</t>
-  </si>
-  <si>
-    <t>36K</t>
-  </si>
-  <si>
-    <t>109K</t>
-  </si>
-  <si>
-    <t>215K</t>
-  </si>
-  <si>
-    <t>124K</t>
-  </si>
-  <si>
-    <t>478K</t>
-  </si>
-  <si>
-    <t>126K</t>
-  </si>
-  <si>
-    <t>413K</t>
-  </si>
-  <si>
-    <t>446K</t>
-  </si>
-  <si>
-    <t>90K</t>
+    <t>450K</t>
+  </si>
+  <si>
+    <t>91K</t>
   </si>
 </sst>
 </file>
@@ -2328,13 +2316,13 @@
         <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2345,13 +2333,13 @@
         <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2362,13 +2350,13 @@
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2379,13 +2367,13 @@
         <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2396,13 +2384,13 @@
         <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2413,13 +2401,13 @@
         <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2430,13 +2418,13 @@
         <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2447,13 +2435,13 @@
         <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2464,13 +2452,13 @@
         <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2481,13 +2469,13 @@
         <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2498,13 +2486,13 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2515,13 +2503,13 @@
         <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2532,13 +2520,13 @@
         <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2549,13 +2537,13 @@
         <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2566,13 +2554,13 @@
         <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2583,13 +2571,13 @@
         <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2600,13 +2588,13 @@
         <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2617,13 +2605,13 @@
         <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E19" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2634,13 +2622,13 @@
         <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2651,13 +2639,13 @@
         <v>271</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2668,13 +2656,13 @@
         <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2685,13 +2673,13 @@
         <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2702,13 +2690,13 @@
         <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2719,13 +2707,13 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2736,13 +2724,13 @@
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E26" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2753,13 +2741,13 @@
         <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2770,13 +2758,13 @@
         <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2787,13 +2775,13 @@
         <v>264</v>
       </c>
       <c r="C29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2804,13 +2792,13 @@
         <v>278</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2818,16 +2806,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E31" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2838,13 +2826,13 @@
         <v>279</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2855,13 +2843,13 @@
         <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2872,13 +2860,13 @@
         <v>265</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E34" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2889,13 +2877,13 @@
         <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E35" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2906,13 +2894,13 @@
         <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2920,16 +2908,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2937,16 +2925,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E38" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2957,13 +2945,13 @@
         <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E39" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2971,16 +2959,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2988,16 +2976,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E41" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3005,16 +2993,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E42" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3022,16 +3010,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3039,16 +3027,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E44" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3059,13 +3047,13 @@
         <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E45" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3076,13 +3064,13 @@
         <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E46" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3093,13 +3081,13 @@
         <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D47" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E47" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3110,13 +3098,13 @@
         <v>286</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E48" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3127,13 +3115,13 @@
         <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E49" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3144,13 +3132,13 @@
         <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E50" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3161,13 +3149,13 @@
         <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3178,13 +3166,13 @@
         <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3195,13 +3183,13 @@
         <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E53" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3212,13 +3200,13 @@
         <v>290</v>
       </c>
       <c r="C54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3229,13 +3217,13 @@
         <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3246,13 +3234,13 @@
         <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E56" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3263,13 +3251,13 @@
         <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3280,13 +3268,13 @@
         <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D58" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E58" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3297,13 +3285,13 @@
         <v>293</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E59" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3314,13 +3302,13 @@
         <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E60" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3331,13 +3319,13 @@
         <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D61" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E61" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3348,13 +3336,13 @@
         <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E62" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3365,13 +3353,13 @@
         <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E63" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3382,13 +3370,13 @@
         <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D64" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3399,13 +3387,13 @@
         <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3416,13 +3404,13 @@
         <v>296</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E66" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3433,13 +3421,13 @@
         <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D67" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E67" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3450,13 +3438,13 @@
         <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D68" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E68" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3467,13 +3455,13 @@
         <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E69" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3481,16 +3469,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D70" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E70" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3501,13 +3489,13 @@
         <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D71" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E71" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3515,16 +3503,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D72" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E72" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3535,13 +3523,13 @@
         <v>299</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D73" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E73" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3552,13 +3540,13 @@
         <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D74" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E74" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3569,13 +3557,13 @@
         <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3586,13 +3574,13 @@
         <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E76" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3600,16 +3588,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E77" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3617,16 +3605,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="D78" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E78" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3634,16 +3622,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="D79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E79" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3654,13 +3642,13 @@
         <v>281</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3671,13 +3659,13 @@
         <v>281</v>
       </c>
       <c r="C81" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D81" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E81" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3688,13 +3676,13 @@
         <v>277</v>
       </c>
       <c r="C82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D82" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E82" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3705,13 +3693,13 @@
         <v>277</v>
       </c>
       <c r="C83" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D83" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E83" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3722,13 +3710,13 @@
         <v>301</v>
       </c>
       <c r="C84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D84" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E84" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3739,13 +3727,13 @@
         <v>302</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E85" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3756,13 +3744,13 @@
         <v>298</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E86" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3773,13 +3761,13 @@
         <v>303</v>
       </c>
       <c r="C87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D87" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E87" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3790,13 +3778,13 @@
         <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E88" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3804,16 +3792,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D89" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E89" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3821,16 +3809,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C90" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3841,13 +3829,13 @@
         <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D91" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E91" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3858,13 +3846,13 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E92" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3875,13 +3863,13 @@
         <v>305</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D93" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E93" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3892,13 +3880,13 @@
         <v>306</v>
       </c>
       <c r="C94" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E94" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3909,13 +3897,13 @@
         <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D95" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E95" t="s">
-        <v>518</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3926,13 +3914,13 @@
         <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E96" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3943,13 +3931,13 @@
         <v>307</v>
       </c>
       <c r="C97" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D97" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E97" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3960,13 +3948,13 @@
         <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D98" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3974,16 +3962,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D99" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E99" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3994,13 +3982,13 @@
         <v>308</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D100" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E100" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4011,13 +3999,13 @@
         <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D101" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E101" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4025,16 +4013,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D102" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E102" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4042,16 +4030,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D103" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E103" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4062,13 +4050,13 @@
         <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4079,13 +4067,13 @@
         <v>311</v>
       </c>
       <c r="C105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D105" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E105" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4096,13 +4084,13 @@
         <v>262</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D106" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E106" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4113,13 +4101,13 @@
         <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E107" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4130,13 +4118,13 @@
         <v>312</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E108" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4147,13 +4135,13 @@
         <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4164,13 +4152,13 @@
         <v>266</v>
       </c>
       <c r="C110" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D110" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E110" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4178,16 +4166,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4195,16 +4183,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="D112" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E112" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4212,16 +4200,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="D113" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E113" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4229,16 +4217,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E114" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4249,13 +4237,13 @@
         <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E115" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4266,13 +4254,13 @@
         <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E116" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4283,13 +4271,13 @@
         <v>316</v>
       </c>
       <c r="C117" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E117" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4300,13 +4288,13 @@
         <v>317</v>
       </c>
       <c r="C118" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E118" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4317,13 +4305,13 @@
         <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D119" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E119" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4331,16 +4319,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="D120" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E120" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4348,16 +4336,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D121" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E121" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4365,16 +4353,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E122" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4382,16 +4370,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="D123" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E123" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4402,13 +4390,13 @@
         <v>320</v>
       </c>
       <c r="C124" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E124" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4419,13 +4407,13 @@
         <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E125" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4436,13 +4424,13 @@
         <v>306</v>
       </c>
       <c r="C126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D126" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E126" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4453,13 +4441,13 @@
         <v>302</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4470,13 +4458,13 @@
         <v>321</v>
       </c>
       <c r="C128" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E128" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4487,13 +4475,13 @@
         <v>322</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D129" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E129" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4504,13 +4492,13 @@
         <v>323</v>
       </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D130" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E130" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4521,13 +4509,13 @@
         <v>309</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4538,13 +4526,13 @@
         <v>324</v>
       </c>
       <c r="C132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D132" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E132" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4555,13 +4543,13 @@
         <v>325</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D133" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E133" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4572,13 +4560,13 @@
         <v>314</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D134" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E134" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4589,13 +4577,13 @@
         <v>295</v>
       </c>
       <c r="C135" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D135" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E135" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4609,10 +4597,10 @@
         <v>416</v>
       </c>
       <c r="D136" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E136" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4623,13 +4611,13 @@
         <v>326</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D137" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E137" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4640,13 +4628,13 @@
         <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4654,16 +4642,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D139" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E139" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4671,16 +4659,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="D140" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E140" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4688,16 +4676,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C141" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="D141" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E141" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4711,10 +4699,10 @@
         <v>416</v>
       </c>
       <c r="D142" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E142" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4728,10 +4716,10 @@
         <v>364</v>
       </c>
       <c r="D143" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E143" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4739,16 +4727,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D144" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E144" t="s">
-        <v>555</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4756,16 +4744,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="C145" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="D145" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E145" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4776,13 +4764,13 @@
         <v>260</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D146" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E146" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4793,13 +4781,13 @@
         <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D147" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E147" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4807,16 +4795,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C148" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D148" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E148" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4827,13 +4815,13 @@
         <v>326</v>
       </c>
       <c r="C149" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D149" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E149" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4841,16 +4829,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D150" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E150" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4858,16 +4846,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C151" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D151" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E151" t="s">
-        <v>559</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4875,16 +4863,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C152" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E152" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4895,13 +4883,13 @@
         <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D153" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E153" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4909,16 +4897,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D154" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E154" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4929,13 +4917,13 @@
         <v>294</v>
       </c>
       <c r="C155" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D155" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4946,13 +4934,13 @@
         <v>261</v>
       </c>
       <c r="C156" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E156" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4963,13 +4951,13 @@
         <v>267</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E157" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4980,13 +4968,13 @@
         <v>258</v>
       </c>
       <c r="C158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D158" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E158" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4994,16 +4982,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E159" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5011,16 +4999,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D160" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E160" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5028,16 +5016,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E161" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5045,16 +5033,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="D162" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E162" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5062,16 +5050,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C163" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E163" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5079,16 +5067,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E164" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5099,13 +5087,13 @@
         <v>276</v>
       </c>
       <c r="C165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D165" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E165" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5116,13 +5104,13 @@
         <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D166" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E166" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5130,16 +5118,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C167" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D167" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E167" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5147,16 +5135,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s">
         <v>395</v>
       </c>
       <c r="D168" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E168" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5167,13 +5155,13 @@
         <v>300</v>
       </c>
       <c r="C169" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D169" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E169" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5184,13 +5172,13 @@
         <v>259</v>
       </c>
       <c r="C170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D170" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E170" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5198,16 +5186,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D171" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E171" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5215,16 +5203,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D172" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E172" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5235,13 +5223,13 @@
         <v>287</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D173" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E173" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5252,13 +5240,13 @@
         <v>257</v>
       </c>
       <c r="C174" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D174" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E174" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5269,13 +5257,13 @@
         <v>265</v>
       </c>
       <c r="C175" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D175" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E175" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5286,13 +5274,13 @@
         <v>284</v>
       </c>
       <c r="C176" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D176" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5303,13 +5291,13 @@
         <v>306</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D177" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E177" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5320,13 +5308,13 @@
         <v>281</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D178" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E178" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5334,16 +5322,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E179" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5351,16 +5339,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C180" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D180" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E180" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5368,16 +5356,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C181" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D181" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E181" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5388,13 +5376,13 @@
         <v>325</v>
       </c>
       <c r="C182" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D182" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E182" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5402,16 +5390,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C183" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D183" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E183" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5419,16 +5407,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D184" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E184" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5436,16 +5424,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E185" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5456,13 +5444,13 @@
         <v>309</v>
       </c>
       <c r="C186" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D186" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E186" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5470,16 +5458,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D187" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E187" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5487,16 +5475,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D188" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E188" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5504,16 +5492,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C189" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E189" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5524,13 +5512,13 @@
         <v>302</v>
       </c>
       <c r="C190" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D190" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E190" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5541,13 +5529,13 @@
         <v>260</v>
       </c>
       <c r="C191" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E191" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5555,16 +5543,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D192" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E192" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5572,16 +5560,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C193" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D193" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E193" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5589,16 +5577,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C194" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D194" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E194" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5606,16 +5594,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D195" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E195" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5623,16 +5611,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D196" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E196" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5640,16 +5628,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C197" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D197" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E197" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5657,16 +5645,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D198" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E198" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5674,16 +5662,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D199" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E199" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5691,16 +5679,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C200" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="D200" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E200" t="s">
-        <v>471</v>
+        <v>596</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5708,16 +5696,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D201" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E201" t="s">
-        <v>599</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5725,16 +5713,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C202" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D202" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E202" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5745,13 +5733,13 @@
         <v>262</v>
       </c>
       <c r="C203" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D203" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E203" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5762,13 +5750,13 @@
         <v>266</v>
       </c>
       <c r="C204" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D204" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E204" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5776,16 +5764,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C205" t="s">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E205" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5793,16 +5781,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
-        <v>356</v>
+        <v>437</v>
       </c>
       <c r="D206" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E206" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5813,13 +5801,13 @@
         <v>259</v>
       </c>
       <c r="C207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E207" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5827,16 +5815,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C208" t="s">
         <v>364</v>
       </c>
       <c r="D208" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E208" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5844,16 +5832,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C209" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="D209" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E209" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5861,16 +5849,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C210" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E210" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5878,16 +5866,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D211" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E211" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5895,16 +5883,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C212" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D212" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E212" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5912,16 +5900,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C213" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="D213" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E213" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5929,16 +5917,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C214" t="s">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="D214" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E214" t="s">
-        <v>505</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5946,16 +5934,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D215" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E215" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5966,13 +5954,13 @@
         <v>300</v>
       </c>
       <c r="C216" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D216" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E216" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5980,16 +5968,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="C217" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E217" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5997,16 +5985,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="C218" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="D218" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E218" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6017,13 +6005,13 @@
         <v>301</v>
       </c>
       <c r="C219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E219" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6031,16 +6019,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C220" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="D220" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E220" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6048,16 +6036,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C221" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="D221" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E221" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6068,13 +6056,13 @@
         <v>325</v>
       </c>
       <c r="C222" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D222" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E222" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6085,13 +6073,13 @@
         <v>320</v>
       </c>
       <c r="C223" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E223" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6102,13 +6090,13 @@
         <v>297</v>
       </c>
       <c r="C224" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D224" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E224" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6119,13 +6107,13 @@
         <v>272</v>
       </c>
       <c r="C225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D225" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E225" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6133,16 +6121,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C226" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D226" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E226" t="s">
-        <v>507</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6150,16 +6138,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="D227" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E227" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6167,16 +6155,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C228" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E228" t="s">
-        <v>622</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6184,16 +6172,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E229" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6204,13 +6192,13 @@
         <v>261</v>
       </c>
       <c r="C230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D230" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E230" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6221,13 +6209,13 @@
         <v>306</v>
       </c>
       <c r="C231" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D231" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E231" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6235,16 +6223,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C232" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E232" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6252,16 +6240,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C233" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D233" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E233" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6269,16 +6257,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C234" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="D234" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E234" t="s">
-        <v>517</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6286,16 +6274,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C235" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E235" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6303,16 +6291,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C236" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="D236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E236" t="s">
-        <v>628</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6320,16 +6308,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D237" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E237" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6337,16 +6325,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="D238" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E238" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6357,13 +6345,13 @@
         <v>282</v>
       </c>
       <c r="C239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E239" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6374,13 +6362,13 @@
         <v>296</v>
       </c>
       <c r="C240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D240" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E240" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6388,16 +6376,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C241" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E241" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6405,16 +6393,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C242" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="D242" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E242" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6422,16 +6410,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C243" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="D243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E243" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6439,16 +6427,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C244" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D244" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E244" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6459,13 +6447,13 @@
         <v>264</v>
       </c>
       <c r="C245" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D245" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E245" t="s">
-        <v>635</v>
+        <v>566</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6473,16 +6461,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C246" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D246" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E246" t="s">
-        <v>636</v>
+        <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6490,16 +6478,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C247" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D247" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E247" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6510,13 +6498,13 @@
         <v>263</v>
       </c>
       <c r="C248" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D248" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E248" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6527,13 +6515,13 @@
         <v>290</v>
       </c>
       <c r="C249" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D249" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E249" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6544,13 +6532,13 @@
         <v>307</v>
       </c>
       <c r="C250" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D250" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E250" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6558,16 +6546,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C251" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D251" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E251" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
